--- a/DA/src/main/resources/excel-templates/principal-template.xlsx
+++ b/DA/src/main/resources/excel-templates/principal-template.xlsx
@@ -108,23 +108,23 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>#{yyb}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>#{endDate}</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>#{fgs}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>#{tenderName}</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>SUM(C4:C@)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>#{yybname}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>#{fgsname}</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -966,26 +966,6 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="12" fillId="2" borderId="4" xfId="177" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="177" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -996,6 +976,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="4" xfId="177" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1542,7 +1546,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1560,121 +1564,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22.5">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="22.5" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="25.5" customHeight="1">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
